--- a/Experiments/Part2-Mix/DocPop-PeerLikeSim/Setting1 Results/Graphs.xlsx
+++ b/Experiments/Part2-Mix/DocPop-PeerLikeSim/Setting1 Results/Graphs.xlsx
@@ -2874,20 +2874,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2123908024"/>
-        <c:axId val="-2108649432"/>
+        <c:axId val="2112367880"/>
+        <c:axId val="2112846792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2123908024"/>
+        <c:axId val="2112367880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108649432"/>
+        <c:crossAx val="2112846792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2895,18 +2914,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2108649432"/>
+        <c:axId val="2112846792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123908024"/>
+        <c:crossAx val="2112367880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5638,20 +5676,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125114248"/>
-        <c:axId val="2129252792"/>
+        <c:axId val="2112229048"/>
+        <c:axId val="2112039352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125114248"/>
+        <c:axId val="2112229048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129252792"/>
+        <c:crossAx val="2112039352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5659,18 +5716,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129252792"/>
+        <c:axId val="2112039352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125114248"/>
+        <c:crossAx val="2112229048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6258,20 +6334,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2113646120"/>
-        <c:axId val="-2125939656"/>
+        <c:axId val="2112256568"/>
+        <c:axId val="2111894984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2113646120"/>
+        <c:axId val="2112256568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125939656"/>
+        <c:crossAx val="2111894984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6279,18 +6374,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125939656"/>
+        <c:axId val="2111894984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113646120"/>
+        <c:crossAx val="2112256568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6412,23 +6526,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6436,15 +6550,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Setting1 Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6771,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE7" workbookViewId="0">
       <selection activeCell="AF1" sqref="AE1:AF1048576"/>
     </sheetView>
   </sheetViews>
